--- a/data/trans_bre/P11_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-1,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-1,35%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>-3,65%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-7,08%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,07</t>
+          <t>-4,22; 5,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,23</t>
+          <t>-4,91; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 5,84</t>
+          <t>-3,46; 5,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,37</t>
+          <t>-4,35; 6,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 36,27</t>
+          <t>-5,47; 4,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 23,87</t>
+          <t>-6,42; 2,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 32,26</t>
+          <t>-18,61; 31,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 13,48</t>
+          <t>-21,45; 20,82</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-14,44; 33,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-19,03; 37,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-18,44; 17,54</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-20,8; 8,61</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,19%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-27,31%</t>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-15,16%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-27,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 11,37</t>
+          <t>-0,31; 11,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 7,28</t>
+          <t>-4,02; 6,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 2,13</t>
+          <t>-9,03; 2,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 1,33</t>
+          <t>-7,04; 4,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 85,3</t>
+          <t>-14,13; 1,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 45,81</t>
+          <t>-4,85; 11,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 13,08</t>
+          <t>-2,47; 90,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,09; 6,8</t>
+          <t>-19,17; 40,9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-37,48; 13,7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,42; 30,12</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-48,26; 7,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; 66,53</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,81%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>62,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 10,26</t>
+          <t>-15,5; 10,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 10,29</t>
+          <t>-4,27; 10,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 10,57</t>
+          <t>-4,75; 9,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-2,06; 17,77</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-61,2; 130,68</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 113,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 145,72</t>
+          <t>-63,47; 123,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-27,25; 128,53</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-30,14; 124,05</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-17,07; 248,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-2,2</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16,22%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,29%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-1,46%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,47</t>
+          <t>-1,0; 6,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,57</t>
+          <t>-2,24; 4,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 3,06</t>
+          <t>-3,63; 3,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,87</t>
+          <t>-2,25; 5,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 41,74</t>
+          <t>-6,67; 1,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 26,9</t>
+          <t>-4,85; 3,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 17,93</t>
+          <t>-4,87; 39,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 8,01</t>
+          <t>-10,57; 24,01</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-16,64; 19,38</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-11,1; 30,91</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-22,55; 6,51</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-16,95; 12,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P11_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,96%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-1,35%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-3,65%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-7,08%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.719549200676467</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4868126618263358</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3969911041287938</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.8282743821193567</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.9977886985981288</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-2.124631675611949</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.03616172565788951</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.02331861138747203</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.01872680021705351</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.04173546937779</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.03652237451187856</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.07534569259687526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 5,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 3,74</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 5,69</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 6,49</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 4,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; 2,18</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-18,61; 31,6</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-21,45; 20,82</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-14,44; 33,53</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-19,03; 37,14</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-18,44; 17,54</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-20,8; 8,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.395591461376823</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.41479754989133</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.525116567288103</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.505740238478744</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-5.468723390561222</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-6.576348627591402</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1878303229837273</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2228077170202131</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1846570105095784</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1962248431591815</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.184408155000409</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.214303987092798</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.780126513614799</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.816165949526081</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.956171211145992</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.311429008453344</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.29946655032055</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.049770708615232</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.3404486811169838</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2119210796476488</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.2720376605202127</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3654058698095156</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.1753840340249218</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.08188776185762506</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,89</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,23</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,84</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>37,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-15,16%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-27,32%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>13,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 11,47</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 6,64</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,03; 2,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 4,93</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 1,39</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 11,09</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 90,29</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-19,17; 40,9</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-37,48; 13,7</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-29,42; 30,12</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-48,26; 7,68</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-20,79; 66,53</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.488655615729373</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.964665792162947</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.677917425477836</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2104580083398228</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-6.839099366383611</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.811505483089172</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2661710360345337</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.04914631047880381</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1712033240827221</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.01095373172668832</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.2732215200400929</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.1374039597647585</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>25,46%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>26,12%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>62,92%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.91959679959578</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.30901761675605</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.16007333168477</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.25078501270807</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-14.13408041578004</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-5.004237624541371</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1117258975166603</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1992557892829189</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3901347796776581</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2720926572435325</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.4826149248475431</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.215464512277045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,5; 10,1</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 10,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 9,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 17,77</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-63,47; 123,84</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-27,25; 128,53</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-30,14; 124,05</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-17,07; 248,12</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.16747587533389</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.570604710779232</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.815836837129658</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.529784890430244</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.393060145383987</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>10.84595628216508</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7184792938208155</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3884530308768242</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1086676713030483</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3459462375750722</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.0767533293143955</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.6564079670113583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>16,05%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-1,46%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,66%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-8,22%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-2,87%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.587839580085601</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.742521042188711</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.119802263501295</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.751287348405246</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1159425016237675</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2148404700382928</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2686636648461219</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.5326812187494472</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 6,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 4,05</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 3,47</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 5,26</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 1,56</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 3,13</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 39,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-10,57; 24,01</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-16,64; 19,38</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-11,1; 30,91</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-22,55; 6,51</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-16,95; 12,99</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.96435302874609</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.727503288258807</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.50033578945349</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.056565423638749</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.6367711793618198</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3034393263649052</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3040953964195304</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2150767908520749</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.48071202448441</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.54827400314044</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.43572376526632</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.07460353980034</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.338819287231039</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.199964583592372</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.290421137013203</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.282306714230756</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.365925536800831</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.538193447368579</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.7732944229216165</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.333617810322002</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.199699797980431</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.8643874636562077</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1319894735041957</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.02777891114787946</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.03841154407401261</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.07125622586068812</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.0821696067240512</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.03284035404590736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.487202353841215</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.712908862570693</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.197678080196613</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.05651179617575</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-6.666593144096519</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.952562205421301</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.07378338131487595</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1276665872491136</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1907865128087312</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1058340074627206</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2255464614226576</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1711444619491673</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.937476350358086</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.803952640417181</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.900064681635357</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.248181249463757</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.563108702662463</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>3.045779155057989</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3770253647955223</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2168328517237808</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1684820461838314</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3109620321405588</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.06507738376509742</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1253501899617885</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
